--- a/input/test4.xlsx
+++ b/input/test4.xlsx
@@ -429,51 +429,51 @@
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22.5</v>
+        <v>78</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -484,51 +484,51 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="B7" t="n">
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B8" t="n">
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22.5</v>
+        <v>78</v>
       </c>
       <c r="B9" t="n">
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B10" t="n">
         <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -539,51 +539,51 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.5</v>
+        <v>27.5</v>
       </c>
       <c r="B12" t="n">
         <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B13" t="n">
         <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>22.5</v>
+        <v>82.5</v>
       </c>
       <c r="B14" t="n">
         <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="B15" t="n">
         <v>50</v>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -594,51 +594,51 @@
         <v>75</v>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.5</v>
+        <v>27.5</v>
       </c>
       <c r="B17" t="n">
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B18" t="n">
         <v>75</v>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>22.5</v>
+        <v>82.5</v>
       </c>
       <c r="B19" t="n">
         <v>75</v>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="B20" t="n">
         <v>75</v>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -649,23 +649,23 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7.5</v>
+        <v>25.5</v>
       </c>
       <c r="B22" t="n">
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B23" t="n">
         <v>100</v>
@@ -676,24 +676,24 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22.5</v>
+        <v>76.5</v>
       </c>
       <c r="B24" t="n">
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B25" t="n">
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
